--- a/Cleartrip/src/test/java/com/qa/testdata/Book1.xlsx
+++ b/Cleartrip/src/test/java/com/qa/testdata/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cleartrip\src\test\java\com\qa\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Project\Cleartrip\src\test\java\com\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F9ABE6-027D-4A1B-BC89-3661F57FBE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E20600-3C40-4B5E-A760-7F79707376D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{35775F76-013F-4BDE-8EE4-68DAE6188156}"/>
   </bookViews>
